--- a/gd/副本内容设计/小怪AOE大招.xlsx
+++ b/gd/副本内容设计/小怪AOE大招.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\新文档\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\svn（策划）\副本内容设计\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="154" uniqueCount="110">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="113">
   <si>
     <t>怪物名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -317,16 +317,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>新怪1</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>新怪3</t>
-  </si>
-  <si>
-    <t>新怪4</t>
-  </si>
-  <si>
     <t>红</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -383,6 +373,24 @@
   <si>
     <t>复用通用单体特效</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蘑菇怪</t>
+  </si>
+  <si>
+    <t>Matango</t>
+  </si>
+  <si>
+    <t>射手</t>
+  </si>
+  <si>
+    <t>Sagittarius </t>
+  </si>
+  <si>
+    <t>天使长</t>
+  </si>
+  <si>
+    <t>Archangel</t>
   </si>
 </sst>
 </file>
@@ -1001,7 +1009,7 @@
   <dimension ref="A1:E75"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J9" sqref="J9"/>
+      <selection activeCell="L31" sqref="L31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1036,31 +1044,31 @@
     <row r="5" spans="1:5" s="94" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="3"/>
       <c r="B5" s="94" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="94" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="3"/>
       <c r="C6" s="94" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="111" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="3"/>
       <c r="D7" s="111" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="94" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="3"/>
       <c r="C8" s="94" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="111" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="3"/>
       <c r="D9" s="111" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="111" customFormat="1" x14ac:dyDescent="0.15">
@@ -1106,7 +1114,7 @@
         <v>19</v>
       </c>
       <c r="E14" s="106" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -1186,7 +1194,7 @@
         <v>28</v>
       </c>
       <c r="E20" s="101" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.3">
@@ -1336,7 +1344,7 @@
         <v>6</v>
       </c>
       <c r="E31" s="105" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.3">
@@ -1382,7 +1390,7 @@
         <v>28</v>
       </c>
       <c r="E35" s="99" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.3">
@@ -1406,7 +1414,7 @@
         <v>28</v>
       </c>
       <c r="E37" s="103" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.3">
@@ -1462,37 +1470,41 @@
     <row r="42" spans="1:5" s="94" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="3"/>
       <c r="B42" s="94" t="s">
+        <v>107</v>
+      </c>
+      <c r="C42" s="96" t="s">
+        <v>108</v>
+      </c>
+      <c r="D42" s="96" t="s">
         <v>90</v>
       </c>
-      <c r="C42" s="96"/>
-      <c r="D42" s="96" t="s">
-        <v>93</v>
-      </c>
       <c r="E42" s="108" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="43" spans="1:5" s="94" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="3"/>
       <c r="C43" s="96"/>
       <c r="D43" s="96" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="E43" s="107" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="44" spans="1:5" s="94" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="3"/>
       <c r="B44" s="94" t="s">
+        <v>109</v>
+      </c>
+      <c r="C44" s="96" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44" s="96" t="s">
         <v>91</v>
       </c>
-      <c r="C44" s="96"/>
-      <c r="D44" s="96" t="s">
-        <v>94</v>
-      </c>
       <c r="E44" s="109" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="45" spans="1:5" s="94" customFormat="1" x14ac:dyDescent="0.3">
@@ -1502,20 +1514,22 @@
         <v>28</v>
       </c>
       <c r="E45" s="110" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="46" spans="1:5" s="94" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="3"/>
       <c r="B46" s="94" t="s">
-        <v>92</v>
-      </c>
-      <c r="C46" s="96"/>
+        <v>111</v>
+      </c>
+      <c r="C46" s="96" t="s">
+        <v>112</v>
+      </c>
       <c r="D46" s="96" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="E46" s="112" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="47" spans="1:5" s="94" customFormat="1" x14ac:dyDescent="0.3">

--- a/gd/副本内容设计/小怪AOE大招.xlsx
+++ b/gd/副本内容设计/小怪AOE大招.xlsx
@@ -13,6 +13,7 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -24,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="157" uniqueCount="113">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="174">
   <si>
     <t>怪物名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -391,13 +392,253 @@
   </si>
   <si>
     <t>Archangel</t>
+  </si>
+  <si>
+    <t>冰雪女王</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Chione</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>蓝</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>光</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>给敌方群体造成XX%的水属性伤害概率附带减速效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物稀有度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>A</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>副本章节boss及活动boss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1_8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>章节/出现位置</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怪物名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>——</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>2_8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>木灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Kodama</t>
+  </si>
+  <si>
+    <t>木</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体技能名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体技能逻辑</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>震地</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>践踏</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击敌方群体，造成xx%法攻木法术伤害（已做）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击敌方群体，造成3次xx%法攻木法术纯伤害（已做）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3_8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>美杜莎</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Medusa</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乱舞</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击敌方群体，造成XX%法攻木属性伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>石化光线</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击敌方群体，造成XX%法攻木属性伤害并概率附加眩晕效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>赫淮斯托斯</t>
+  </si>
+  <si>
+    <t>4_8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>疯狂制造</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击敌方群体，造成XX%物攻火属性伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击敌方群体，造成XX%物攻火属性伤害并附加火属性dot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>网</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>眩晕敌方群体1回合</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>制造之神</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>潘多拉盒子</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击敌方群体，造成XX%物攻火属性伤害并附加火属性dot和眩晕效果（复用潘多拉盒子和网的2个特效）</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>5_8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>伊米尔</t>
+  </si>
+  <si>
+    <t>水</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>九尾狐</t>
+  </si>
+  <si>
+    <t>经验试炼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>金钱试炼</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Hephaestus</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yimier</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>黄金之灵</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>喷火</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击敌方群体，造成xx%法攻火法术伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乾坤一掷1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击敌方群体，造成xx%物攻光法术伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>乾坤一掷2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击敌方群体，造成xx%法攻光法术伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -441,8 +682,27 @@
       <family val="3"/>
       <charset val="134"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF333333"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -452,6 +712,18 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -476,11 +748,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -490,185 +759,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
@@ -685,43 +778,36 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1006,674 +1092,1069 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E75"/>
+  <dimension ref="A1:J71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L31" sqref="L31"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="I16" sqref="I16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
+    <col min="1" max="1" width="9" style="2"/>
     <col min="2" max="2" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="9.25" style="1" customWidth="1"/>
     <col min="4" max="5" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="94" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A1" s="3" t="s">
+    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:5" s="94" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A2" s="3"/>
-      <c r="B2" s="94" t="s">
+    <row r="2" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A2" s="2"/>
+      <c r="B2" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="94" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A3" s="3"/>
-      <c r="C3" s="94" t="s">
+    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A3" s="2"/>
+      <c r="C3" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="94" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A4" s="3"/>
-    </row>
-    <row r="5" spans="1:5" s="94" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A5" s="3"/>
-      <c r="B5" s="94" t="s">
+    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A5" s="2"/>
+      <c r="B5" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="94" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A6" s="3"/>
-      <c r="C6" s="94" t="s">
+    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+      <c r="C6" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="111" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A7" s="3"/>
-      <c r="D7" s="111" t="s">
+    <row r="7" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+      <c r="D7" s="9" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:5" s="94" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A8" s="3"/>
-      <c r="C8" s="94" t="s">
+    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+      <c r="C8" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:5" s="111" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A9" s="3"/>
-      <c r="D9" s="111" t="s">
+    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+      <c r="D9" s="9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:5" s="111" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A10" s="3"/>
-    </row>
-    <row r="11" spans="1:5" s="94" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A11" s="3" t="s">
+    <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A11" s="2" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="B12" s="3" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="3" t="s">
+      <c r="D12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="3" t="s">
+      <c r="E12" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F12" s="2" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="2" t="s">
+    <row r="13" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="13"/>
+      <c r="B13" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="5" t="s">
+      <c r="C13" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="D13" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="7" t="s">
+      <c r="E13" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F13" s="14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:5" s="104" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="3"/>
-      <c r="C14" s="96"/>
-      <c r="D14" s="96" t="s">
+    <row r="14" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="13"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="106" t="s">
+      <c r="E14" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F14" s="14" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B15" s="8" t="s">
+    <row r="15" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="13"/>
+      <c r="B15" s="14" t="s">
+        <v>11</v>
+      </c>
+      <c r="C15" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F15" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="13"/>
+      <c r="B16" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C16" s="15" t="s">
+        <v>20</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E16" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F16" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="13"/>
+      <c r="B17" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C17" s="15" t="s">
+        <v>41</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E17" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F17" s="14" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="13"/>
+      <c r="B18" s="14" t="s">
+        <v>107</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F18" s="14" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="13"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15" t="s">
+        <v>91</v>
+      </c>
+      <c r="E19" s="14" t="s">
+        <v>119</v>
+      </c>
+      <c r="F19" s="14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="13"/>
+      <c r="B20" s="14" t="s">
+        <v>15</v>
+      </c>
+      <c r="C20" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E20" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F20" s="14" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="13"/>
+      <c r="B21" s="14" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="15" t="s">
+        <v>22</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E21" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F21" s="14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A22" s="13"/>
+      <c r="C22" s="15"/>
+      <c r="D22" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="13"/>
+      <c r="B23" s="14" t="s">
         <v>8</v>
       </c>
+      <c r="C23" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F23" s="14" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="13"/>
+      <c r="B24" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="C24" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="E24" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F24" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13"/>
+      <c r="B25" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F25" s="14" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="13"/>
+      <c r="B26" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E26" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="13"/>
+      <c r="B27" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="C27" s="15" t="s">
+        <v>46</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E27" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F27" s="14" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="13"/>
+      <c r="B28" s="14" t="s">
+        <v>61</v>
+      </c>
+      <c r="C28" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="D28" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="E28" s="14" t="s">
+        <v>120</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="13"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F29" s="14" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="13"/>
+      <c r="B30" s="14" t="s">
+        <v>58</v>
+      </c>
+      <c r="C30" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="D30" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E30" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F30" s="14" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="13"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="F31" s="14" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="13"/>
+      <c r="B32" s="14" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="D32" s="15" t="s">
+        <v>28</v>
+      </c>
+      <c r="E32" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F32" s="14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="13"/>
+      <c r="B33" s="16" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D33" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E33" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F33" s="14" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="13"/>
+      <c r="B34" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="C34" s="15" t="s">
+        <v>49</v>
+      </c>
+      <c r="D34" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F34" s="14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="13"/>
+      <c r="B35" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="C35" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="D35" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E35" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F35" s="14" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="13"/>
+      <c r="C36" s="15"/>
+      <c r="D36" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E36" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F36" s="14" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="13"/>
+      <c r="B37" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="D37" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E37" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F37" s="14" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="13"/>
+      <c r="B38" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="C38" s="15" t="s">
+        <v>65</v>
+      </c>
+      <c r="D38" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="E38" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F38" s="14" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="13"/>
+      <c r="B39" s="14" t="s">
+        <v>68</v>
+      </c>
+      <c r="C39" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="D39" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="E39" s="14" t="s">
+        <v>121</v>
+      </c>
+      <c r="F39" s="14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="18"/>
+      <c r="B40" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="C40" s="19" t="s">
+        <v>30</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>6</v>
+      </c>
+      <c r="E40" s="19" t="s">
+        <v>122</v>
+      </c>
+      <c r="F40" s="19" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="18"/>
+      <c r="B41" s="19" t="s">
+        <v>109</v>
+      </c>
+      <c r="C41" s="20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="E41" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="F41" s="19" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="18"/>
+      <c r="C42" s="20"/>
+      <c r="D42" s="20" t="s">
+        <v>28</v>
+      </c>
+      <c r="E42" s="19" t="s">
+        <v>125</v>
+      </c>
+      <c r="F42" s="19" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="18"/>
+      <c r="B43" s="19" t="s">
+        <v>111</v>
+      </c>
+      <c r="C43" s="20" t="s">
+        <v>112</v>
+      </c>
+      <c r="D43" s="20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E43" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="F43" s="19" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="18"/>
+      <c r="B44" s="19" t="s">
+        <v>113</v>
+      </c>
+      <c r="C44" s="20" t="s">
+        <v>114</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>115</v>
+      </c>
+      <c r="E44" s="19" t="s">
+        <v>124</v>
+      </c>
+      <c r="F44" s="19" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="18"/>
+      <c r="B45" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="C45" s="20" t="s">
+        <v>33</v>
+      </c>
+      <c r="D45" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E45" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F45" s="19" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="18"/>
+      <c r="B46" s="19" t="s">
+        <v>68</v>
+      </c>
+      <c r="C46" s="20" t="s">
+        <v>69</v>
+      </c>
+      <c r="D46" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E46" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F46" s="19" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="18"/>
+      <c r="B47" s="19" t="s">
+        <v>72</v>
+      </c>
+      <c r="C47" s="20" t="s">
+        <v>73</v>
+      </c>
+      <c r="D47" s="20" t="s">
+        <v>23</v>
+      </c>
+      <c r="E47" s="19" t="s">
+        <v>123</v>
+      </c>
+      <c r="F47" s="19" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A48" s="4"/>
+    </row>
+    <row r="49" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A49" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="11"/>
+      <c r="B50" s="11" t="s">
+        <v>128</v>
+      </c>
+      <c r="C50" s="11" t="s">
+        <v>129</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="E50" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="F50" s="11" t="s">
+        <v>135</v>
+      </c>
+      <c r="G50" s="11" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="11"/>
+      <c r="B51" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C51" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="D51" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="E51" s="21" t="s">
+        <v>130</v>
+      </c>
+      <c r="F51" s="12" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="11"/>
+    </row>
+    <row r="53" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A53" s="11"/>
+      <c r="B53" s="12" t="s">
+        <v>131</v>
+      </c>
+      <c r="C53" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D53" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="E53" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F53" s="9" t="s">
+        <v>137</v>
+      </c>
+      <c r="G53" s="9" t="s">
+        <v>139</v>
+      </c>
+      <c r="H53" s="10"/>
+      <c r="I53" s="9"/>
+    </row>
+    <row r="54" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A54" s="2"/>
+      <c r="C54" s="7"/>
+      <c r="D54" s="7"/>
+      <c r="E54" s="6"/>
+      <c r="F54" s="9" t="s">
+        <v>138</v>
+      </c>
+      <c r="G54" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="H54" s="10"/>
+      <c r="I54" s="10"/>
+      <c r="J54" s="10"/>
+    </row>
+    <row r="55" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="17"/>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B56" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="C56" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D56" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="E56" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="F56" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="G56" s="10" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F57" s="9" t="s">
+        <v>146</v>
+      </c>
+      <c r="G57" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B59" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="C59" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="D59" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="E59" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F59" s="9" t="s">
+        <v>151</v>
+      </c>
+      <c r="G59" s="10" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F60" s="9" t="s">
+        <v>157</v>
+      </c>
+      <c r="G60" s="10" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F61" s="9" t="s">
+        <v>154</v>
+      </c>
+      <c r="G61" s="10" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="F62" s="9" t="s">
+        <v>156</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
+      <c r="B64" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="C64" s="22" t="s">
+        <v>160</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="67" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B67" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="F67" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="G67" s="9" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="70" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B70" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C70" s="9" t="s">
+        <v>167</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="F70" s="9" t="s">
+        <v>170</v>
+      </c>
+      <c r="G70" s="9" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="71" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F71" s="9" t="s">
+        <v>172</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>173</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="1" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
+      <c r="A1" s="2" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A2" s="2"/>
+      <c r="B2" s="9" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A3" s="2"/>
+      <c r="C3" s="9" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A4" s="2"/>
+      <c r="D4" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A5" s="2"/>
+      <c r="D5" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A6" s="2"/>
+      <c r="D6" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A7" s="2"/>
+      <c r="D7" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A8" s="2"/>
+      <c r="D8" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A9" s="2"/>
+      <c r="C9" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A10" s="2"/>
+      <c r="D10" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A11" s="2"/>
+      <c r="D11" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A12" s="2"/>
+      <c r="D12" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A13" s="2"/>
+      <c r="D13" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A14" s="2"/>
+      <c r="D14" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A15" s="2"/>
       <c r="C15" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="D15" s="10" t="s">
-        <v>6</v>
-      </c>
-      <c r="E15" s="11" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B16" s="12" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16" s="13" t="s">
-        <v>12</v>
-      </c>
-      <c r="D16" s="14" t="s">
-        <v>13</v>
-      </c>
-      <c r="E16" s="15" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B17" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="C17" s="17" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="18" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B18" s="20" t="s">
-        <v>18</v>
-      </c>
-      <c r="C18" s="22" t="s">
-        <v>20</v>
-      </c>
-      <c r="D18" s="21" t="s">
-        <v>19</v>
-      </c>
-      <c r="E18" s="23" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="24" t="s">
-        <v>21</v>
-      </c>
-      <c r="C19" s="25" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="26" t="s">
-        <v>23</v>
-      </c>
-      <c r="E19" s="27" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="20" spans="1:5" s="98" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="3"/>
-      <c r="C20" s="96"/>
-      <c r="D20" s="96" t="s">
-        <v>28</v>
-      </c>
-      <c r="E20" s="101" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="28" t="s">
-        <v>25</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>26</v>
-      </c>
-      <c r="D21" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="E21" s="30" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B22" s="32" t="s">
-        <v>29</v>
-      </c>
-      <c r="C22" s="32" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" s="34" t="s">
-        <v>6</v>
-      </c>
-      <c r="E22" s="33" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="C23" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="D23" s="37" t="s">
-        <v>23</v>
-      </c>
-      <c r="E23" s="38" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B24" s="39" t="s">
-        <v>35</v>
-      </c>
-      <c r="C24" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="41" t="s">
-        <v>19</v>
-      </c>
-      <c r="E24" s="42" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B25" s="43" t="s">
-        <v>38</v>
-      </c>
-      <c r="C25" s="44" t="s">
-        <v>39</v>
-      </c>
-      <c r="D25" s="45" t="s">
-        <v>6</v>
-      </c>
-      <c r="E25" s="46" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B26" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="C26" s="48" t="s">
-        <v>41</v>
-      </c>
-      <c r="D26" s="49" t="s">
-        <v>6</v>
-      </c>
-      <c r="E26" s="50" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="C27" s="51" t="s">
-        <v>43</v>
-      </c>
-      <c r="D27" s="53" t="s">
-        <v>6</v>
-      </c>
-      <c r="E27" s="52" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B28" s="54" t="s">
-        <v>45</v>
-      </c>
-      <c r="C28" s="56" t="s">
-        <v>46</v>
-      </c>
-      <c r="D28" s="55" t="s">
-        <v>28</v>
-      </c>
-      <c r="E28" s="57" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="58" t="s">
-        <v>48</v>
-      </c>
-      <c r="C29" s="59" t="s">
-        <v>49</v>
-      </c>
-      <c r="D29" s="61" t="s">
-        <v>13</v>
-      </c>
-      <c r="E29" s="60" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B30" s="63" t="s">
-        <v>51</v>
-      </c>
-      <c r="C30" s="64" t="s">
-        <v>52</v>
-      </c>
-      <c r="D30" s="65" t="s">
-        <v>13</v>
-      </c>
-      <c r="E30" s="66" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="102" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="3"/>
-      <c r="C31" s="96"/>
-      <c r="D31" s="96" t="s">
-        <v>6</v>
-      </c>
-      <c r="E31" s="105" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="67" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="68" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" s="69" t="s">
-        <v>23</v>
-      </c>
-      <c r="E32" s="71" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D33" s="70" t="s">
-        <v>13</v>
-      </c>
-      <c r="E33" s="72" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="73" t="s">
-        <v>58</v>
-      </c>
-      <c r="C34" s="74" t="s">
-        <v>59</v>
-      </c>
-      <c r="D34" s="75" t="s">
-        <v>6</v>
-      </c>
-      <c r="E34" s="76" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:5" s="94" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3"/>
-      <c r="C35" s="96"/>
-      <c r="D35" s="96" t="s">
-        <v>28</v>
-      </c>
-      <c r="E35" s="99" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="77" t="s">
-        <v>61</v>
-      </c>
-      <c r="C36" s="79" t="s">
-        <v>62</v>
-      </c>
-      <c r="D36" s="78" t="s">
-        <v>23</v>
-      </c>
-      <c r="E36" s="80" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="37" spans="1:5" s="100" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3"/>
-      <c r="C37" s="96"/>
-      <c r="D37" s="96" t="s">
-        <v>28</v>
-      </c>
-      <c r="E37" s="103" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="81" t="s">
-        <v>64</v>
-      </c>
-      <c r="C38" s="82" t="s">
-        <v>65</v>
-      </c>
-      <c r="D38" s="83" t="s">
-        <v>66</v>
-      </c>
-      <c r="E38" s="84" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="85" t="s">
-        <v>68</v>
-      </c>
-      <c r="C39" s="86" t="s">
-        <v>69</v>
-      </c>
-      <c r="D39" s="87" t="s">
-        <v>23</v>
-      </c>
-      <c r="E39" s="89" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="D40" s="88" t="s">
-        <v>13</v>
-      </c>
-      <c r="E40" s="90" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="91" t="s">
-        <v>72</v>
-      </c>
-      <c r="C41" s="92" t="s">
-        <v>73</v>
-      </c>
-      <c r="D41" s="93" t="s">
-        <v>23</v>
-      </c>
-      <c r="E41" s="95" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="42" spans="1:5" s="94" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3"/>
-      <c r="B42" s="94" t="s">
-        <v>107</v>
-      </c>
-      <c r="C42" s="96" t="s">
-        <v>108</v>
-      </c>
-      <c r="D42" s="96" t="s">
-        <v>90</v>
-      </c>
-      <c r="E42" s="108" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="43" spans="1:5" s="94" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="3"/>
-      <c r="C43" s="96"/>
-      <c r="D43" s="96" t="s">
-        <v>91</v>
-      </c>
-      <c r="E43" s="107" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="44" spans="1:5" s="94" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="3"/>
-      <c r="B44" s="94" t="s">
-        <v>109</v>
-      </c>
-      <c r="C44" s="96" t="s">
-        <v>110</v>
-      </c>
-      <c r="D44" s="96" t="s">
-        <v>91</v>
-      </c>
-      <c r="E44" s="109" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="45" spans="1:5" s="94" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="3"/>
-      <c r="C45" s="96"/>
-      <c r="D45" s="96" t="s">
-        <v>28</v>
-      </c>
-      <c r="E45" s="110" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="46" spans="1:5" s="94" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="3"/>
-      <c r="B46" s="94" t="s">
-        <v>111</v>
-      </c>
-      <c r="C46" s="96" t="s">
-        <v>112</v>
-      </c>
-      <c r="D46" s="96" t="s">
-        <v>90</v>
-      </c>
-      <c r="E46" s="112" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="47" spans="1:5" s="94" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="3"/>
-      <c r="C47" s="96"/>
-      <c r="D47" s="96"/>
-      <c r="E47" s="95"/>
-    </row>
-    <row r="48" spans="1:5" s="94" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="3"/>
-      <c r="C48" s="96"/>
-      <c r="D48" s="96"/>
-      <c r="E48" s="95"/>
-    </row>
-    <row r="49" spans="1:4" s="97" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="62"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="A50" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="B51" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C52" s="1" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D53" s="1" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A16" s="2"/>
+      <c r="D16" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D54" s="1" t="s">
+    <row r="17" spans="1:4" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A17" s="2"/>
+      <c r="D17" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D55" s="1" t="s">
+    <row r="18" spans="1:4" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A18" s="2"/>
+      <c r="D18" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D56" s="1" t="s">
+    <row r="19" spans="1:4" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A19" s="2"/>
+      <c r="D19" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D57" s="1" t="s">
+    <row r="20" spans="1:4" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A20" s="2"/>
+      <c r="D20" s="9" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C58" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D59" s="94" t="s">
+    <row r="21" spans="1:4" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A21" s="2"/>
+      <c r="C21" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A22" s="2"/>
+      <c r="D22" s="9" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D60" s="94" t="s">
+    <row r="23" spans="1:4" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A23" s="2"/>
+      <c r="D23" s="9" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D61" s="94" t="s">
+    <row r="24" spans="1:4" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A24" s="2"/>
+      <c r="D24" s="9" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D62" s="94" t="s">
+    <row r="25" spans="1:4" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A25" s="2"/>
+      <c r="D25" s="9" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="D63" s="94" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.15">
-      <c r="C64" s="1" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="65" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D65" s="94" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="66" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D66" s="94" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="67" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D67" s="94" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="68" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D68" s="94" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="69" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D69" s="94" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="70" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="C70" s="94" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="71" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D71" s="94" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="72" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D72" s="94" t="s">
-        <v>83</v>
-      </c>
-    </row>
-    <row r="73" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D73" s="94" t="s">
-        <v>84</v>
-      </c>
-    </row>
-    <row r="74" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D74" s="94" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="75" spans="3:4" x14ac:dyDescent="0.15">
-      <c r="D75" s="94" t="s">
+    <row r="26" spans="1:4" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
+      <c r="A26" s="2"/>
+      <c r="D26" s="9" t="s">
         <v>86</v>
       </c>
     </row>

--- a/gd/副本内容设计/小怪AOE大招.xlsx
+++ b/gd/副本内容设计/小怪AOE大招.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="254" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="176">
   <si>
     <t>怪物名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -631,6 +631,14 @@
   </si>
   <si>
     <t>攻击敌方群体，造成xx%法攻光法术伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为需要制作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>为不需要制作</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -702,7 +710,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -727,6 +735,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -748,7 +762,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -791,9 +805,6 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
@@ -808,6 +819,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1092,10 +1109,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J71"/>
+  <dimension ref="A1:K71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
-      <selection activeCell="I16" sqref="I16"/>
+    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="H28" sqref="H28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1107,65 +1124,69 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="C3" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="C6" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="D7" s="9" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="C8" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="D9" s="9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:6" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="J11" s="23"/>
+      <c r="K11" s="9" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
@@ -1181,8 +1202,12 @@
       <c r="F12" s="2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="J12" s="18"/>
+      <c r="K12" s="1" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13"/>
       <c r="B13" s="14" t="s">
         <v>3</v>
@@ -1200,7 +1225,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15" t="s">
@@ -1213,7 +1238,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="14" t="s">
         <v>11</v>
@@ -1231,7 +1256,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13"/>
       <c r="B16" s="14" t="s">
         <v>18</v>
@@ -1462,309 +1487,309 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="13"/>
-      <c r="B30" s="14" t="s">
+    <row r="30" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="17"/>
+      <c r="B30" s="18" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="15" t="s">
+      <c r="C30" s="19" t="s">
         <v>59</v>
       </c>
-      <c r="D30" s="15" t="s">
+      <c r="D30" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E30" s="14" t="s">
+      <c r="E30" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="F30" s="14" t="s">
+      <c r="F30" s="18" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="13"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15" t="s">
+    <row r="31" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="17"/>
+      <c r="C31" s="19"/>
+      <c r="D31" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="14" t="s">
+      <c r="F31" s="18" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="32" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="13"/>
-      <c r="B32" s="14" t="s">
+    <row r="32" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="17"/>
+      <c r="B32" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="15" t="s">
+      <c r="C32" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="15" t="s">
+      <c r="D32" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="14" t="s">
+      <c r="E32" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="F32" s="14" t="s">
+      <c r="F32" s="18" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="13"/>
-      <c r="B33" s="16" t="s">
+    <row r="33" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="17"/>
+      <c r="B33" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="16" t="s">
+      <c r="C33" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="15" t="s">
+      <c r="D33" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="14" t="s">
+      <c r="E33" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="F33" s="14" t="s">
+      <c r="F33" s="18" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="13"/>
-      <c r="B34" s="14" t="s">
+    <row r="34" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="17"/>
+      <c r="B34" s="18" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="15" t="s">
+      <c r="C34" s="19" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="15" t="s">
+      <c r="D34" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="14" t="s">
+      <c r="E34" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="F34" s="14" t="s">
+      <c r="F34" s="18" t="s">
         <v>50</v>
       </c>
     </row>
-    <row r="35" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="13"/>
-      <c r="B35" s="14" t="s">
+    <row r="35" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A35" s="17"/>
+      <c r="B35" s="18" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="15" t="s">
+      <c r="C35" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D35" s="15" t="s">
+      <c r="D35" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E35" s="14" t="s">
+      <c r="E35" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="F35" s="14" t="s">
+      <c r="F35" s="18" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="13"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15" t="s">
+    <row r="36" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="17"/>
+      <c r="C36" s="19"/>
+      <c r="D36" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="14" t="s">
+      <c r="E36" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="F36" s="14" t="s">
+      <c r="F36" s="18" t="s">
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="13"/>
-      <c r="B37" s="14" t="s">
+    <row r="37" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="17"/>
+      <c r="B37" s="18" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="15" t="s">
+      <c r="C37" s="19" t="s">
         <v>55</v>
       </c>
-      <c r="D37" s="15" t="s">
+      <c r="D37" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="14" t="s">
+      <c r="E37" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="F37" s="14" t="s">
+      <c r="F37" s="18" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="13"/>
-      <c r="B38" s="14" t="s">
+    <row r="38" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="17"/>
+      <c r="B38" s="18" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="15" t="s">
+      <c r="C38" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D38" s="15" t="s">
+      <c r="D38" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="E38" s="14" t="s">
+      <c r="E38" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="F38" s="14" t="s">
+      <c r="F38" s="18" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="13"/>
-      <c r="B39" s="14" t="s">
+    <row r="39" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A39" s="17"/>
+      <c r="B39" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="15" t="s">
+      <c r="C39" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D39" s="15" t="s">
+      <c r="D39" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E39" s="14" t="s">
+      <c r="E39" s="18" t="s">
         <v>121</v>
       </c>
-      <c r="F39" s="14" t="s">
+      <c r="F39" s="18" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="18"/>
-      <c r="B40" s="19" t="s">
+    <row r="40" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="17"/>
+      <c r="B40" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="19" t="s">
+      <c r="C40" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="20" t="s">
+      <c r="D40" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="19" t="s">
+      <c r="E40" s="18" t="s">
         <v>122</v>
       </c>
-      <c r="F40" s="19" t="s">
+      <c r="F40" s="18" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="18"/>
-      <c r="B41" s="19" t="s">
+    <row r="41" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="17"/>
+      <c r="B41" s="18" t="s">
         <v>109</v>
       </c>
-      <c r="C41" s="20" t="s">
+      <c r="C41" s="19" t="s">
         <v>110</v>
       </c>
-      <c r="D41" s="20" t="s">
+      <c r="D41" s="19" t="s">
         <v>91</v>
       </c>
-      <c r="E41" s="19" t="s">
+      <c r="E41" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="F41" s="19" t="s">
+      <c r="F41" s="18" t="s">
         <v>99</v>
       </c>
     </row>
-    <row r="42" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="18"/>
-      <c r="C42" s="20"/>
-      <c r="D42" s="20" t="s">
+    <row r="42" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="17"/>
+      <c r="C42" s="19"/>
+      <c r="D42" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E42" s="19" t="s">
+      <c r="E42" s="18" t="s">
         <v>125</v>
       </c>
-      <c r="F42" s="19" t="s">
+      <c r="F42" s="18" t="s">
         <v>100</v>
       </c>
     </row>
-    <row r="43" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="18"/>
-      <c r="B43" s="19" t="s">
+    <row r="43" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="17"/>
+      <c r="B43" s="18" t="s">
         <v>111</v>
       </c>
-      <c r="C43" s="20" t="s">
+      <c r="C43" s="19" t="s">
         <v>112</v>
       </c>
-      <c r="D43" s="20" t="s">
+      <c r="D43" s="19" t="s">
         <v>90</v>
       </c>
-      <c r="E43" s="19" t="s">
+      <c r="E43" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="F43" s="19" t="s">
+      <c r="F43" s="18" t="s">
         <v>101</v>
       </c>
     </row>
-    <row r="44" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="18"/>
-      <c r="B44" s="19" t="s">
+    <row r="44" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="17"/>
+      <c r="B44" s="18" t="s">
         <v>113</v>
       </c>
-      <c r="C44" s="20" t="s">
+      <c r="C44" s="19" t="s">
         <v>114</v>
       </c>
-      <c r="D44" s="20" t="s">
+      <c r="D44" s="19" t="s">
         <v>115</v>
       </c>
-      <c r="E44" s="19" t="s">
+      <c r="E44" s="18" t="s">
         <v>124</v>
       </c>
-      <c r="F44" s="19" t="s">
+      <c r="F44" s="18" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="45" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A45" s="18"/>
-      <c r="B45" s="19" t="s">
+    <row r="45" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A45" s="17"/>
+      <c r="B45" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="20" t="s">
+      <c r="C45" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="20" t="s">
+      <c r="D45" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E45" s="19" t="s">
+      <c r="E45" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="F45" s="19" t="s">
+      <c r="F45" s="18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A46" s="18"/>
-      <c r="B46" s="19" t="s">
+    <row r="46" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A46" s="17"/>
+      <c r="B46" s="18" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="20" t="s">
+      <c r="C46" s="19" t="s">
         <v>69</v>
       </c>
-      <c r="D46" s="20" t="s">
+      <c r="D46" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E46" s="19" t="s">
+      <c r="E46" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="F46" s="19" t="s">
+      <c r="F46" s="18" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="19" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A47" s="18"/>
-      <c r="B47" s="19" t="s">
+    <row r="47" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A47" s="17"/>
+      <c r="B47" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="C47" s="20" t="s">
+      <c r="C47" s="19" t="s">
         <v>73</v>
       </c>
-      <c r="D47" s="20" t="s">
+      <c r="D47" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E47" s="19" t="s">
+      <c r="E47" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="F47" s="19" t="s">
+      <c r="F47" s="18" t="s">
         <v>74</v>
       </c>
     </row>
@@ -1808,7 +1833,7 @@
       <c r="D51" s="12" t="s">
         <v>130</v>
       </c>
-      <c r="E51" s="21" t="s">
+      <c r="E51" s="20" t="s">
         <v>130</v>
       </c>
       <c r="F51" s="12" t="s">
@@ -1857,7 +1882,7 @@
       <c r="J54" s="10"/>
     </row>
     <row r="55" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="17"/>
+      <c r="A55" s="16"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.15">
       <c r="B56" s="1" t="s">
@@ -1935,7 +1960,7 @@
       <c r="B64" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="C64" s="22" t="s">
+      <c r="C64" s="21" t="s">
         <v>160</v>
       </c>
       <c r="D64" s="10" t="s">

--- a/gd/副本内容设计/小怪AOE大招.xlsx
+++ b/gd/副本内容设计/小怪AOE大招.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="181">
   <si>
     <t>怪物名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -525,10 +525,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>石化光线</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>攻击敌方群体，造成XX%法攻木属性伤害并概率附加眩晕效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -544,10 +540,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>疯狂制造</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>攻击敌方群体，造成XX%物攻火属性伤害</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -556,18 +548,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>网</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>眩晕敌方群体1回合</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>制造之神</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>潘多拉盒子</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -639,6 +623,42 @@
   </si>
   <si>
     <t>为不需要制作</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>橙色为还未制作的</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>怒火中烧</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>炎镣铐</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>觅焰师</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>石化凝视</t>
+    <phoneticPr fontId="10" type="noConversion"/>
+  </si>
+  <si>
+    <t>破冰</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击敌方群体，造成XX%法攻水属性伤害；若目标存在吹雪技能添加的stun buff则造成大伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>龙之吐息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击敌方群体，造成XX%法攻水属性伤害并概率附加效果</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -646,7 +666,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -709,8 +729,20 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="微软雅黑"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="6">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -741,6 +773,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -762,7 +800,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -825,6 +863,13 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1109,10 +1154,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K71"/>
+  <dimension ref="A1:R71"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection activeCell="H28" sqref="H28"/>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="H64" sqref="H64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1124,69 +1169,72 @@
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
         <v>79</v>
       </c>
     </row>
-    <row r="2" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="3" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="C3" s="5" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="4" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
     </row>
-    <row r="5" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="5" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="6" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="C6" s="5" t="s">
         <v>103</v>
       </c>
     </row>
-    <row r="7" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="D7" s="9" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="8" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="C8" s="5" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="9" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="D9" s="9" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="10" spans="1:11" s="9" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
     </row>
-    <row r="11" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
         <v>77</v>
       </c>
       <c r="J11" s="23"/>
       <c r="K11" s="9" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+        <v>171</v>
+      </c>
+      <c r="M11" s="24" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
         <v>0</v>
       </c>
@@ -1204,10 +1252,10 @@
       </c>
       <c r="J12" s="18"/>
       <c r="K12" s="1" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13"/>
       <c r="B13" s="14" t="s">
         <v>3</v>
@@ -1225,7 +1273,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="14" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
       <c r="C14" s="15"/>
       <c r="D14" s="15" t="s">
@@ -1238,7 +1286,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="15" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
       <c r="B15" s="14" t="s">
         <v>11</v>
@@ -1256,7 +1304,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:11" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13"/>
       <c r="B16" s="14" t="s">
         <v>18</v>
@@ -1274,7 +1322,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
       <c r="B17" s="14" t="s">
         <v>40</v>
@@ -1292,7 +1340,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
       <c r="B18" s="14" t="s">
         <v>107</v>
@@ -1310,7 +1358,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="19" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
       <c r="C19" s="15"/>
       <c r="D19" s="15" t="s">
@@ -1323,7 +1371,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="20" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="B20" s="14" t="s">
         <v>15</v>
@@ -1341,7 +1389,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
       <c r="B21" s="14" t="s">
         <v>21</v>
@@ -1359,7 +1407,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
       <c r="C22" s="15"/>
       <c r="D22" s="15" t="s">
@@ -1369,7 +1417,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="23" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
       <c r="B23" s="14" t="s">
         <v>8</v>
@@ -1387,7 +1435,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13"/>
       <c r="B24" s="14" t="s">
         <v>35</v>
@@ -1405,7 +1453,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13"/>
       <c r="B25" s="14" t="s">
         <v>38</v>
@@ -1423,7 +1471,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
       <c r="B26" s="14" t="s">
         <v>54</v>
@@ -1441,7 +1489,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="27" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
       <c r="B27" s="14" t="s">
         <v>45</v>
@@ -1459,7 +1507,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
       <c r="B28" s="14" t="s">
         <v>61</v>
@@ -1477,7 +1525,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="29" spans="1:6" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13"/>
       <c r="C29" s="15"/>
       <c r="D29" s="15" t="s">
@@ -1487,7 +1535,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="30" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="B30" s="18" t="s">
         <v>58</v>
@@ -1505,17 +1553,23 @@
         <v>60</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
-      <c r="C31" s="19"/>
-      <c r="D31" s="19" t="s">
+      <c r="B31" s="24"/>
+      <c r="C31" s="25"/>
+      <c r="D31" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="18" t="s">
+      <c r="E31" s="24"/>
+      <c r="F31" s="24" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+    </row>
+    <row r="32" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
       <c r="B32" s="18" t="s">
         <v>25</v>
@@ -1533,7 +1587,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
       <c r="B33" s="22" t="s">
         <v>42</v>
@@ -1551,25 +1605,29 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
-      <c r="B34" s="18" t="s">
+      <c r="B34" s="24" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="19" t="s">
+      <c r="C34" s="25" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="19" t="s">
+      <c r="D34" s="25" t="s">
         <v>13</v>
       </c>
-      <c r="E34" s="18" t="s">
+      <c r="E34" s="24" t="s">
         <v>121</v>
       </c>
-      <c r="F34" s="18" t="s">
+      <c r="F34" s="24" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+    </row>
+    <row r="35" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
       <c r="B35" s="18" t="s">
         <v>51</v>
@@ -1587,7 +1645,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
       <c r="C36" s="19"/>
       <c r="D36" s="19" t="s">
@@ -1600,7 +1658,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="37" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="17"/>
       <c r="B37" s="18" t="s">
         <v>54</v>
@@ -1618,7 +1676,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="38" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="17"/>
       <c r="B38" s="18" t="s">
         <v>64</v>
@@ -1636,7 +1694,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="39" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="17"/>
       <c r="B39" s="18" t="s">
         <v>68</v>
@@ -1654,7 +1712,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="40" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="17"/>
       <c r="B40" s="18" t="s">
         <v>29</v>
@@ -1672,74 +1730,91 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="17"/>
-      <c r="B41" s="18" t="s">
+      <c r="B41" s="24" t="s">
         <v>109</v>
       </c>
-      <c r="C41" s="19" t="s">
+      <c r="C41" s="25" t="s">
         <v>110</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="25" t="s">
         <v>91</v>
       </c>
-      <c r="E41" s="18" t="s">
+      <c r="E41" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="F41" s="18" t="s">
+      <c r="F41" s="24" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+    </row>
+    <row r="42" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="17"/>
-      <c r="C42" s="19"/>
-      <c r="D42" s="19" t="s">
+      <c r="B42" s="24"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="E42" s="18" t="s">
+      <c r="E42" s="24" t="s">
         <v>125</v>
       </c>
-      <c r="F42" s="18" t="s">
+      <c r="F42" s="24" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+    </row>
+    <row r="43" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="17"/>
-      <c r="B43" s="18" t="s">
+      <c r="B43" s="24" t="s">
         <v>111</v>
       </c>
-      <c r="C43" s="19" t="s">
+      <c r="C43" s="25" t="s">
         <v>112</v>
       </c>
-      <c r="D43" s="19" t="s">
+      <c r="D43" s="25" t="s">
         <v>90</v>
       </c>
-      <c r="E43" s="18" t="s">
+      <c r="E43" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="F43" s="18" t="s">
+      <c r="F43" s="24" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+    </row>
+    <row r="44" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="17"/>
-      <c r="B44" s="18" t="s">
+      <c r="B44" s="24" t="s">
         <v>113</v>
       </c>
-      <c r="C44" s="19" t="s">
+      <c r="C44" s="25" t="s">
         <v>114</v>
       </c>
-      <c r="D44" s="19" t="s">
+      <c r="D44" s="25" t="s">
         <v>115</v>
       </c>
-      <c r="E44" s="18" t="s">
+      <c r="E44" s="24" t="s">
         <v>124</v>
       </c>
-      <c r="F44" s="18" t="s">
+      <c r="F44" s="24" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+    </row>
+    <row r="45" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="17"/>
       <c r="B45" s="18" t="s">
         <v>32</v>
@@ -1757,7 +1832,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="17"/>
       <c r="B46" s="18" t="s">
         <v>68</v>
@@ -1775,7 +1850,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="47" spans="1:6" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="17"/>
       <c r="B47" s="18" t="s">
         <v>72</v>
@@ -1793,15 +1868,15 @@
         <v>74</v>
       </c>
     </row>
-    <row r="48" spans="1:6" s="8" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A48" s="4"/>
     </row>
-    <row r="49" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="11" t="s">
         <v>126</v>
       </c>
     </row>
-    <row r="50" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="11" t="s">
         <v>128</v>
@@ -1822,7 +1897,7 @@
         <v>136</v>
       </c>
     </row>
-    <row r="51" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="11"/>
       <c r="B51" s="12" t="s">
         <v>127</v>
@@ -1840,10 +1915,10 @@
         <v>130</v>
       </c>
     </row>
-    <row r="52" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="11"/>
     </row>
-    <row r="53" spans="1:10" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="11"/>
       <c r="B53" s="12" t="s">
         <v>131</v>
@@ -1866,7 +1941,7 @@
       <c r="H53" s="10"/>
       <c r="I53" s="9"/>
     </row>
-    <row r="54" spans="1:10" s="5" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A54" s="2"/>
       <c r="C54" s="7"/>
       <c r="D54" s="7"/>
@@ -1881,10 +1956,10 @@
       <c r="I54" s="10"/>
       <c r="J54" s="10"/>
     </row>
-    <row r="55" spans="1:10" s="10" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A55" s="16"/>
     </row>
-    <row r="56" spans="1:10" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.15">
       <c r="B56" s="1" t="s">
         <v>141</v>
       </c>
@@ -1904,112 +1979,132 @@
         <v>145</v>
       </c>
     </row>
-    <row r="57" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="F57" s="9" t="s">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="F57" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="G57" s="10" t="s">
         <v>146</v>
       </c>
-      <c r="G57" s="10" t="s">
+    </row>
+    <row r="59" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B59" s="9" t="s">
+        <v>148</v>
+      </c>
+      <c r="C59" s="1" t="s">
         <v>147</v>
       </c>
-    </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B59" s="9" t="s">
+      <c r="D59" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="E59" s="1" t="s">
         <v>149</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="D59" s="1" t="s">
-        <v>165</v>
-      </c>
-      <c r="E59" s="1" t="s">
+      <c r="F59" s="26" t="s">
+        <v>173</v>
+      </c>
+      <c r="G59" s="10" t="s">
         <v>150</v>
       </c>
-      <c r="F59" s="9" t="s">
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="F60" s="9" t="s">
+        <v>153</v>
+      </c>
+      <c r="G60" s="10" t="s">
         <v>151</v>
       </c>
-      <c r="G59" s="10" t="s">
+    </row>
+    <row r="61" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="F61" s="26" t="s">
+        <v>174</v>
+      </c>
+      <c r="G61" s="10" t="s">
         <v>152</v>
       </c>
-    </row>
-    <row r="60" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="F60" s="9" t="s">
+      <c r="R61" s="26"/>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="F62" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="G62" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="R62" s="26"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R63" s="26"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B64" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C64" s="21" t="s">
+        <v>156</v>
+      </c>
+      <c r="D64" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="E64" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="G60" s="10" t="s">
-        <v>153</v>
-      </c>
-    </row>
-    <row r="61" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="F61" s="9" t="s">
-        <v>154</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>155</v>
-      </c>
-    </row>
-    <row r="62" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="F62" s="9" t="s">
-        <v>156</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>158</v>
-      </c>
-    </row>
-    <row r="64" spans="1:10" x14ac:dyDescent="0.15">
-      <c r="B64" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C64" s="21" t="s">
-        <v>160</v>
-      </c>
-      <c r="D64" s="10" t="s">
-        <v>166</v>
-      </c>
-      <c r="E64" s="1" t="s">
-        <v>161</v>
+      <c r="F64" s="9" t="s">
+        <v>177</v>
+      </c>
+      <c r="G64" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="R64" s="26"/>
+    </row>
+    <row r="65" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="F65" s="9" t="s">
+        <v>179</v>
+      </c>
+      <c r="G65" s="10" t="s">
+        <v>180</v>
       </c>
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B67" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F67" s="9" t="s">
-        <v>168</v>
+        <v>164</v>
       </c>
       <c r="G67" s="9" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B70" s="1" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C70" s="9" t="s">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>116</v>
       </c>
       <c r="F70" s="9" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.15">
       <c r="F71" s="9" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>173</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>

--- a/gd/副本内容设计/小怪AOE大招.xlsx
+++ b/gd/副本内容设计/小怪AOE大招.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="261" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="220">
   <si>
     <t>怪物名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -176,9 +176,6 @@
     <t>群体治疗几率附加hot</t>
   </si>
   <si>
-    <t>道成寺钟</t>
-  </si>
-  <si>
     <t>Maiden Dojoji</t>
   </si>
   <si>
@@ -382,15 +379,9 @@
     <t>Matango</t>
   </si>
   <si>
-    <t>射手</t>
-  </si>
-  <si>
     <t>Sagittarius </t>
   </si>
   <si>
-    <t>天使长</t>
-  </si>
-  <si>
     <t>Archangel</t>
   </si>
   <si>
@@ -459,10 +450,6 @@
   </si>
   <si>
     <t>怪物名称</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>——</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -654,11 +641,183 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
+    <t>攻击敌方群体，造成XX%法攻水属性伤害并概率附加效果</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>道成寺钟</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>射手</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>天使长</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>大招名称</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultLongnv3Hit</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultMomo1Hit</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultShuigui3Hit</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultHuoniao3Hit</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultHuoniao4Hit</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultIfrit4Hit</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultIfrit5Hit</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultKairuisi4Hit</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultAmute3Hit</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultDujiaoshou5Hit</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultWeitianshi5Hit</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultLongnv1Hit</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultDaochengsizhong4Hit</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultBingyan4Hit</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultSheshou3Hit</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultSheshou1Hit</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultTianshizhang4Hit</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultBingxuenvwang3Hit</t>
+    <phoneticPr fontId="11" type="noConversion"/>
+  </si>
+  <si>
+    <t>吐息</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>拉冬</t>
+  </si>
+  <si>
+    <t>Ladon</t>
+  </si>
+  <si>
+    <t>龙卷风</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>攻击敌方群体，造成xx%法攻暗法术伤害</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
     <t>龙之吐息</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>攻击敌方群体，造成XX%法攻水属性伤害并概率附加效果</t>
+    <r>
+      <t>攻击敌方群体，造成xx%法攻暗法术纯伤害并附加一个暗属性</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="微软雅黑"/>
+        <family val="2"/>
+        <charset val="134"/>
+      </rPr>
+      <t>dot</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossLadong52Hit</t>
+  </si>
+  <si>
+    <t>bossLadong54Hit</t>
+  </si>
+  <si>
+    <t>bossMuling22Hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossMuling24Hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossMeidusha26Hit</t>
+  </si>
+  <si>
+    <t>bossMeidusha27Hit</t>
+  </si>
+  <si>
+    <t>bosshehuaisituosi2Hit</t>
+  </si>
+  <si>
+    <t>bosshehuaisituosi3Hit</t>
+  </si>
+  <si>
+    <t>bosshehuaisituosi4Hit</t>
+  </si>
+  <si>
+    <t>bosshehuaisituosi5Hit</t>
+  </si>
+  <si>
+    <t>bossYimier3Hit</t>
+  </si>
+  <si>
+    <t>bossYimier4Hit</t>
+  </si>
+  <si>
+    <t>bossJiuweihu42Hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossHuangjinzhiling14Hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>bossHuangjinzhiling13Hit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -666,7 +825,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -741,6 +900,13 @@
       <name val="微软雅黑"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="7">
     <fill>
@@ -800,7 +966,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -870,6 +1036,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1154,36 +1323,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R71"/>
+  <dimension ref="A1:R72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="H64" sqref="H64"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="E68" sqref="E68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="1" max="1" width="9" style="2"/>
-    <col min="2" max="2" width="9.25" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.25" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="36.125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="9.25" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="2" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="3" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="C3" s="5" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
@@ -1192,31 +1361,31 @@
     <row r="5" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="B5" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="6" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="C6" s="5" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="D7" s="9" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="8" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="C8" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="D9" s="9" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="10" spans="1:13" s="9" customFormat="1" x14ac:dyDescent="0.15">
@@ -1224,648 +1393,699 @@
     </row>
     <row r="11" spans="1:13" s="5" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A11" s="2" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="J11" s="23"/>
       <c r="K11" s="9" t="s">
-        <v>171</v>
+        <v>167</v>
       </c>
       <c r="M11" s="24" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="B12" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="C12" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="C12" s="3" t="s">
+      <c r="D12" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="E12" s="2" t="s">
-        <v>118</v>
-      </c>
       <c r="F12" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" s="2" t="s">
         <v>2</v>
       </c>
       <c r="J12" s="18"/>
       <c r="K12" s="1" t="s">
-        <v>170</v>
+        <v>166</v>
       </c>
     </row>
     <row r="13" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A13" s="13"/>
-      <c r="B13" s="14" t="s">
+      <c r="C13" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="C13" s="15" t="s">
+      <c r="D13" s="15" t="s">
         <v>5</v>
       </c>
-      <c r="D13" s="15" t="s">
+      <c r="E13" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E13" s="14" t="s">
-        <v>119</v>
-      </c>
       <c r="F13" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G13" s="14" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="14" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A14" s="13"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15" t="s">
+      <c r="D14" s="15"/>
+      <c r="E14" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="14" t="s">
-        <v>119</v>
-      </c>
       <c r="F14" s="14" t="s">
-        <v>96</v>
+        <v>116</v>
+      </c>
+      <c r="G14" s="14" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="15" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A15" s="13"/>
-      <c r="B15" s="14" t="s">
+      <c r="C15" s="14" t="s">
         <v>11</v>
       </c>
-      <c r="C15" s="15" t="s">
+      <c r="D15" s="15" t="s">
         <v>12</v>
       </c>
-      <c r="D15" s="15" t="s">
+      <c r="E15" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E15" s="14" t="s">
-        <v>119</v>
-      </c>
       <c r="F15" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G15" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="16" spans="1:13" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A16" s="13"/>
-      <c r="B16" s="14" t="s">
+      <c r="C16" s="14" t="s">
         <v>18</v>
       </c>
-      <c r="C16" s="15" t="s">
+      <c r="D16" s="15" t="s">
         <v>20</v>
       </c>
-      <c r="D16" s="15" t="s">
+      <c r="E16" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E16" s="14" t="s">
-        <v>119</v>
-      </c>
       <c r="F16" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G16" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
-      <c r="B17" s="14" t="s">
+      <c r="C17" s="14" t="s">
         <v>40</v>
       </c>
-      <c r="C17" s="15" t="s">
+      <c r="D17" s="15" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="15" t="s">
+      <c r="E17" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E17" s="14" t="s">
-        <v>119</v>
-      </c>
       <c r="F17" s="14" t="s">
+        <v>116</v>
+      </c>
+      <c r="G17" s="14" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
-      <c r="B18" s="14" t="s">
+      <c r="C18" s="14" t="s">
+        <v>106</v>
+      </c>
+      <c r="D18" s="15" t="s">
         <v>107</v>
       </c>
-      <c r="C18" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>90</v>
-      </c>
-      <c r="E18" s="14" t="s">
-        <v>119</v>
+      <c r="E18" s="15" t="s">
+        <v>89</v>
       </c>
       <c r="F18" s="14" t="s">
-        <v>98</v>
+        <v>116</v>
+      </c>
+      <c r="G18" s="14" t="s">
+        <v>97</v>
       </c>
     </row>
     <row r="19" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="E19" s="14" t="s">
-        <v>119</v>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15" t="s">
+        <v>90</v>
       </c>
       <c r="F19" s="14" t="s">
-        <v>97</v>
+        <v>116</v>
+      </c>
+      <c r="G19" s="14" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="20" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
-      <c r="B20" s="14" t="s">
+      <c r="C20" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="C20" s="15" t="s">
+      <c r="D20" s="15" t="s">
         <v>16</v>
       </c>
-      <c r="D20" s="15" t="s">
+      <c r="E20" s="15" t="s">
         <v>13</v>
       </c>
-      <c r="E20" s="14" t="s">
-        <v>120</v>
-      </c>
       <c r="F20" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="G20" s="14" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
-      <c r="B21" s="14" t="s">
+      <c r="C21" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="C21" s="15" t="s">
+      <c r="D21" s="15" t="s">
         <v>22</v>
       </c>
-      <c r="D21" s="15" t="s">
+      <c r="E21" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="E21" s="14" t="s">
-        <v>120</v>
-      </c>
       <c r="F21" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="G21" s="14" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="22" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="15" t="s">
+      <c r="D22" s="15"/>
+      <c r="E22" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F22" s="14" t="s">
-        <v>93</v>
+      <c r="G22" s="14" t="s">
+        <v>92</v>
       </c>
     </row>
     <row r="23" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
-      <c r="B23" s="14" t="s">
+      <c r="C23" s="14" t="s">
         <v>8</v>
       </c>
-      <c r="C23" s="15" t="s">
+      <c r="D23" s="15" t="s">
         <v>9</v>
       </c>
-      <c r="D23" s="15" t="s">
+      <c r="E23" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E23" s="14" t="s">
-        <v>120</v>
-      </c>
       <c r="F23" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="G23" s="14" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="24" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13"/>
-      <c r="B24" s="14" t="s">
+      <c r="C24" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="C24" s="15" t="s">
+      <c r="D24" s="15" t="s">
         <v>36</v>
       </c>
-      <c r="D24" s="15" t="s">
+      <c r="E24" s="15" t="s">
         <v>19</v>
       </c>
-      <c r="E24" s="14" t="s">
-        <v>120</v>
-      </c>
       <c r="F24" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="G24" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="25" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13"/>
-      <c r="B25" s="14" t="s">
+      <c r="C25" s="14" t="s">
         <v>38</v>
       </c>
-      <c r="C25" s="15" t="s">
+      <c r="D25" s="15" t="s">
         <v>39</v>
       </c>
-      <c r="D25" s="15" t="s">
+      <c r="E25" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="E25" s="14" t="s">
-        <v>120</v>
-      </c>
       <c r="F25" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="G25" s="14" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
-      <c r="B26" s="14" t="s">
+      <c r="C26" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D26" s="15" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="15" t="s">
+      <c r="E26" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F26" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="G26" s="14" t="s">
         <v>55</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E26" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="F26" s="14" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="27" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
-      <c r="B27" s="14" t="s">
+      <c r="C27" s="14" t="s">
         <v>45</v>
       </c>
-      <c r="C27" s="15" t="s">
+      <c r="D27" s="15" t="s">
         <v>46</v>
       </c>
-      <c r="D27" s="15" t="s">
+      <c r="E27" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="E27" s="14" t="s">
-        <v>120</v>
-      </c>
       <c r="F27" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="G27" s="14" t="s">
         <v>47</v>
       </c>
     </row>
     <row r="28" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
-      <c r="B28" s="14" t="s">
+      <c r="C28" s="14" t="s">
+        <v>60</v>
+      </c>
+      <c r="D28" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="C28" s="15" t="s">
+      <c r="E28" s="15" t="s">
+        <v>23</v>
+      </c>
+      <c r="F28" s="14" t="s">
+        <v>117</v>
+      </c>
+      <c r="G28" s="14" t="s">
         <v>62</v>
-      </c>
-      <c r="D28" s="15" t="s">
-        <v>23</v>
-      </c>
-      <c r="E28" s="14" t="s">
-        <v>120</v>
-      </c>
-      <c r="F28" s="14" t="s">
-        <v>63</v>
       </c>
     </row>
     <row r="29" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15" t="s">
+      <c r="D29" s="15"/>
+      <c r="E29" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="F29" s="14" t="s">
-        <v>94</v>
+      <c r="G29" s="14" t="s">
+        <v>93</v>
       </c>
     </row>
     <row r="30" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
-      <c r="B30" s="18" t="s">
+      <c r="B30" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="C30" s="18" t="s">
+        <v>57</v>
+      </c>
+      <c r="D30" s="19" t="s">
         <v>58</v>
       </c>
-      <c r="C30" s="19" t="s">
+      <c r="E30" s="19" t="s">
+        <v>6</v>
+      </c>
+      <c r="F30" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G30" s="18" t="s">
         <v>59</v>
-      </c>
-      <c r="D30" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="E30" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="F30" s="18" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="31" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="17"/>
-      <c r="B31" s="24"/>
-      <c r="C31" s="25"/>
-      <c r="D31" s="25" t="s">
+      <c r="B31" s="19" t="s">
+        <v>191</v>
+      </c>
+      <c r="C31" s="24"/>
+      <c r="D31" s="25"/>
+      <c r="E31" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="E31" s="24"/>
-      <c r="F31" s="24" t="s">
-        <v>92</v>
-      </c>
-      <c r="G31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24" t="s">
+        <v>91</v>
+      </c>
       <c r="H31" s="24"/>
       <c r="I31" s="24"/>
       <c r="J31" s="24"/>
     </row>
     <row r="32" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
-      <c r="B32" s="18" t="s">
+      <c r="B32" s="19" t="s">
+        <v>181</v>
+      </c>
+      <c r="C32" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="C32" s="19" t="s">
+      <c r="D32" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="E32" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="E32" s="18" t="s">
-        <v>121</v>
-      </c>
       <c r="F32" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G32" s="18" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="33" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="19" t="s">
+        <v>182</v>
+      </c>
+      <c r="C33" s="22" t="s">
         <v>42</v>
       </c>
-      <c r="C33" s="22" t="s">
+      <c r="D33" s="22" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="19" t="s">
+      <c r="E33" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E33" s="18" t="s">
-        <v>121</v>
-      </c>
       <c r="F33" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G33" s="18" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="34" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="17"/>
-      <c r="B34" s="24" t="s">
+      <c r="B34" s="19" t="s">
+        <v>192</v>
+      </c>
+      <c r="C34" s="24" t="s">
+        <v>176</v>
+      </c>
+      <c r="D34" s="25" t="s">
         <v>48</v>
       </c>
-      <c r="C34" s="25" t="s">
+      <c r="E34" s="25" t="s">
+        <v>13</v>
+      </c>
+      <c r="F34" s="24" t="s">
+        <v>118</v>
+      </c>
+      <c r="G34" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="25" t="s">
-        <v>13</v>
-      </c>
-      <c r="E34" s="24" t="s">
-        <v>121</v>
-      </c>
-      <c r="F34" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="G34" s="24"/>
       <c r="H34" s="24"/>
       <c r="I34" s="24"/>
       <c r="J34" s="24"/>
     </row>
     <row r="35" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
-      <c r="B35" s="18" t="s">
+      <c r="B35" s="19" t="s">
+        <v>184</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>50</v>
+      </c>
+      <c r="D35" s="19" t="s">
         <v>51</v>
       </c>
-      <c r="C35" s="19" t="s">
+      <c r="E35" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="F35" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G35" s="18" t="s">
         <v>52</v>
-      </c>
-      <c r="D35" s="19" t="s">
-        <v>13</v>
-      </c>
-      <c r="E35" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="F35" s="18" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="36" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
-      <c r="C36" s="19"/>
-      <c r="D36" s="19" t="s">
+      <c r="B36" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="D36" s="19"/>
+      <c r="E36" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E36" s="18" t="s">
-        <v>121</v>
-      </c>
       <c r="F36" s="18" t="s">
-        <v>95</v>
+        <v>118</v>
+      </c>
+      <c r="G36" s="18" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="37" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="17"/>
-      <c r="B37" s="18" t="s">
+      <c r="B37" s="19" t="s">
+        <v>187</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>53</v>
+      </c>
+      <c r="D37" s="19" t="s">
         <v>54</v>
       </c>
-      <c r="C37" s="19" t="s">
-        <v>55</v>
-      </c>
-      <c r="D37" s="19" t="s">
+      <c r="E37" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E37" s="18" t="s">
-        <v>121</v>
-      </c>
       <c r="F37" s="18" t="s">
-        <v>57</v>
+        <v>118</v>
+      </c>
+      <c r="G37" s="18" t="s">
+        <v>56</v>
       </c>
     </row>
     <row r="38" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="17"/>
-      <c r="B38" s="18" t="s">
+      <c r="B38" s="19" t="s">
+        <v>188</v>
+      </c>
+      <c r="C38" s="18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D38" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="C38" s="19" t="s">
+      <c r="E38" s="19" t="s">
         <v>65</v>
       </c>
-      <c r="D38" s="19" t="s">
+      <c r="F38" s="18" t="s">
+        <v>118</v>
+      </c>
+      <c r="G38" s="18" t="s">
         <v>66</v>
-      </c>
-      <c r="E38" s="18" t="s">
-        <v>121</v>
-      </c>
-      <c r="F38" s="18" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="39" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="17"/>
-      <c r="B39" s="18" t="s">
+      <c r="B39" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="C39" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D39" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C39" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="D39" s="19" t="s">
+      <c r="E39" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E39" s="18" t="s">
-        <v>121</v>
-      </c>
       <c r="F39" s="18" t="s">
-        <v>71</v>
+        <v>118</v>
+      </c>
+      <c r="G39" s="18" t="s">
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="17"/>
-      <c r="B40" s="18" t="s">
+      <c r="B40" s="19" t="s">
+        <v>193</v>
+      </c>
+      <c r="C40" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="C40" s="18" t="s">
+      <c r="D40" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="E40" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="E40" s="18" t="s">
-        <v>122</v>
-      </c>
       <c r="F40" s="18" t="s">
+        <v>119</v>
+      </c>
+      <c r="G40" s="18" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="41" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="17"/>
-      <c r="B41" s="24" t="s">
-        <v>109</v>
-      </c>
-      <c r="C41" s="25" t="s">
-        <v>110</v>
+      <c r="B41" s="19" t="s">
+        <v>194</v>
+      </c>
+      <c r="C41" s="24" t="s">
+        <v>177</v>
       </c>
       <c r="D41" s="25" t="s">
-        <v>91</v>
-      </c>
-      <c r="E41" s="24" t="s">
-        <v>124</v>
+        <v>108</v>
+      </c>
+      <c r="E41" s="25" t="s">
+        <v>90</v>
       </c>
       <c r="F41" s="24" t="s">
-        <v>99</v>
-      </c>
-      <c r="G41" s="24"/>
+        <v>121</v>
+      </c>
+      <c r="G41" s="24" t="s">
+        <v>98</v>
+      </c>
       <c r="H41" s="24"/>
       <c r="I41" s="24"/>
       <c r="J41" s="24"/>
     </row>
     <row r="42" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="17"/>
-      <c r="B42" s="24"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="25" t="s">
+      <c r="B42" s="19" t="s">
+        <v>195</v>
+      </c>
+      <c r="C42" s="24"/>
+      <c r="D42" s="25"/>
+      <c r="E42" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="E42" s="24" t="s">
-        <v>125</v>
-      </c>
       <c r="F42" s="24" t="s">
-        <v>100</v>
-      </c>
-      <c r="G42" s="24"/>
+        <v>122</v>
+      </c>
+      <c r="G42" s="24" t="s">
+        <v>99</v>
+      </c>
       <c r="H42" s="24"/>
       <c r="I42" s="24"/>
       <c r="J42" s="24"/>
     </row>
     <row r="43" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="17"/>
-      <c r="B43" s="24" t="s">
-        <v>111</v>
-      </c>
-      <c r="C43" s="25" t="s">
-        <v>112</v>
+      <c r="B43" s="19" t="s">
+        <v>196</v>
+      </c>
+      <c r="C43" s="24" t="s">
+        <v>178</v>
       </c>
       <c r="D43" s="25" t="s">
-        <v>90</v>
-      </c>
-      <c r="E43" s="24" t="s">
-        <v>124</v>
+        <v>109</v>
+      </c>
+      <c r="E43" s="25" t="s">
+        <v>89</v>
       </c>
       <c r="F43" s="24" t="s">
-        <v>101</v>
-      </c>
-      <c r="G43" s="24"/>
+        <v>121</v>
+      </c>
+      <c r="G43" s="24" t="s">
+        <v>100</v>
+      </c>
       <c r="H43" s="24"/>
       <c r="I43" s="24"/>
       <c r="J43" s="24"/>
     </row>
     <row r="44" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A44" s="17"/>
-      <c r="B44" s="24" t="s">
-        <v>113</v>
-      </c>
-      <c r="C44" s="25" t="s">
+      <c r="B44" s="19" t="s">
+        <v>197</v>
+      </c>
+      <c r="C44" s="24" t="s">
+        <v>110</v>
+      </c>
+      <c r="D44" s="25" t="s">
+        <v>111</v>
+      </c>
+      <c r="E44" s="25" t="s">
+        <v>112</v>
+      </c>
+      <c r="F44" s="24" t="s">
+        <v>121</v>
+      </c>
+      <c r="G44" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="D44" s="25" t="s">
-        <v>115</v>
-      </c>
-      <c r="E44" s="24" t="s">
-        <v>124</v>
-      </c>
-      <c r="F44" s="24" t="s">
-        <v>117</v>
-      </c>
-      <c r="G44" s="24"/>
       <c r="H44" s="24"/>
       <c r="I44" s="24"/>
       <c r="J44" s="24"/>
     </row>
     <row r="45" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="17"/>
-      <c r="B45" s="18" t="s">
+      <c r="B45" s="19" t="s">
+        <v>190</v>
+      </c>
+      <c r="C45" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="C45" s="19" t="s">
+      <c r="D45" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="D45" s="19" t="s">
+      <c r="E45" s="19" t="s">
         <v>23</v>
       </c>
-      <c r="E45" s="18" t="s">
-        <v>123</v>
-      </c>
       <c r="F45" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="G45" s="18" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="46" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="17"/>
-      <c r="B46" s="18" t="s">
+      <c r="B46" s="19" t="s">
+        <v>186</v>
+      </c>
+      <c r="C46" s="18" t="s">
+        <v>67</v>
+      </c>
+      <c r="D46" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="C46" s="19" t="s">
+      <c r="E46" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F46" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="G46" s="18" t="s">
         <v>69</v>
-      </c>
-      <c r="D46" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E46" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="F46" s="18" t="s">
-        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="17"/>
-      <c r="B47" s="18" t="s">
+      <c r="B47" s="19" t="s">
+        <v>189</v>
+      </c>
+      <c r="C47" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="D47" s="19" t="s">
         <v>72</v>
       </c>
-      <c r="C47" s="19" t="s">
+      <c r="E47" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="F47" s="18" t="s">
+        <v>120</v>
+      </c>
+      <c r="G47" s="18" t="s">
         <v>73</v>
-      </c>
-      <c r="D47" s="19" t="s">
-        <v>23</v>
-      </c>
-      <c r="E47" s="18" t="s">
-        <v>123</v>
-      </c>
-      <c r="F47" s="18" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="48" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.15">
@@ -1873,238 +2093,303 @@
     </row>
     <row r="49" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A49" s="11" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="50" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A50" s="11"/>
       <c r="B50" s="11" t="s">
-        <v>128</v>
-      </c>
-      <c r="C50" s="11" t="s">
-        <v>129</v>
-      </c>
-      <c r="D50" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>179</v>
+      </c>
+      <c r="D50" s="11" t="s">
+        <v>126</v>
+      </c>
+      <c r="E50" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="E50" s="2" t="s">
+      <c r="F50" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="F50" s="11" t="s">
-        <v>135</v>
-      </c>
       <c r="G50" s="11" t="s">
-        <v>136</v>
+        <v>131</v>
+      </c>
+      <c r="H50" s="11" t="s">
+        <v>132</v>
       </c>
     </row>
     <row r="51" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A51" s="11"/>
       <c r="B51" s="12" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="C51" s="12" t="s">
-        <v>130</v>
+        <v>205</v>
       </c>
       <c r="D51" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="E51" s="20" t="s">
-        <v>130</v>
-      </c>
-      <c r="F51" s="12" t="s">
-        <v>130</v>
+        <v>199</v>
+      </c>
+      <c r="E51" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F51" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="G51" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="H51" s="10" t="s">
+        <v>202</v>
       </c>
     </row>
     <row r="52" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A52" s="11"/>
+      <c r="C52" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="F52" s="20"/>
+      <c r="G52" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="H52" s="10" t="s">
+        <v>204</v>
+      </c>
     </row>
     <row r="53" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A53" s="11"/>
-      <c r="B53" s="12" t="s">
-        <v>131</v>
-      </c>
-      <c r="C53" s="12" t="s">
-        <v>132</v>
-      </c>
-      <c r="D53" s="12" t="s">
+      <c r="F53" s="20"/>
+    </row>
+    <row r="54" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A54" s="11"/>
+      <c r="B54" s="12" t="s">
+        <v>127</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>207</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>128</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="F54" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G54" s="9" t="s">
         <v>133</v>
       </c>
-      <c r="E53" s="12" t="s">
+      <c r="H54" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="I54" s="10"/>
+      <c r="J54" s="9"/>
+    </row>
+    <row r="55" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A55" s="2"/>
+      <c r="C55" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D55" s="7"/>
+      <c r="E55" s="7"/>
+      <c r="F55" s="6"/>
+      <c r="G55" s="9" t="s">
         <v>134</v>
       </c>
-      <c r="F53" s="9" t="s">
+      <c r="H55" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="I55" s="10"/>
+      <c r="J55" s="10"/>
+      <c r="K55" s="10"/>
+    </row>
+    <row r="56" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="16"/>
+    </row>
+    <row r="57" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B57" s="1" t="s">
         <v>137</v>
       </c>
-      <c r="G53" s="9" t="s">
+      <c r="C57" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D57" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E57" s="1" t="s">
         <v>139</v>
       </c>
-      <c r="H53" s="10"/>
-      <c r="I53" s="9"/>
-    </row>
-    <row r="54" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A54" s="2"/>
-      <c r="C54" s="7"/>
-      <c r="D54" s="7"/>
-      <c r="E54" s="6"/>
-      <c r="F54" s="9" t="s">
-        <v>138</v>
-      </c>
-      <c r="G54" s="10" t="s">
+      <c r="F57" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G57" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="H54" s="10"/>
-      <c r="I54" s="10"/>
-      <c r="J54" s="10"/>
-    </row>
-    <row r="55" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A55" s="16"/>
-    </row>
-    <row r="56" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B56" s="1" t="s">
+      <c r="H57" s="10" t="s">
         <v>141</v>
       </c>
-      <c r="C56" s="1" t="s">
+    </row>
+    <row r="58" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="C58" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="G58" s="26" t="s">
+        <v>172</v>
+      </c>
+      <c r="H58" s="10" t="s">
         <v>142</v>
       </c>
-      <c r="D56" s="1" t="s">
+    </row>
+    <row r="60" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="B60" s="9" t="s">
+        <v>144</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E56" s="12" t="s">
-        <v>134</v>
-      </c>
-      <c r="F56" s="9" t="s">
-        <v>144</v>
-      </c>
-      <c r="G56" s="10" t="s">
+      <c r="E60" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="F60" s="1" t="s">
         <v>145</v>
       </c>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="F57" s="26" t="s">
-        <v>176</v>
-      </c>
-      <c r="G57" s="10" t="s">
+      <c r="G60" s="26" t="s">
+        <v>169</v>
+      </c>
+      <c r="H60" s="10" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="59" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B59" s="9" t="s">
+    <row r="61" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="C61" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="G61" s="9" t="s">
+        <v>149</v>
+      </c>
+      <c r="H61" s="10" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="62" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="C62" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G62" s="26" t="s">
+        <v>170</v>
+      </c>
+      <c r="H62" s="10" t="s">
         <v>148</v>
       </c>
-      <c r="C59" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="D59" s="1" t="s">
+      <c r="R62" s="26"/>
+    </row>
+    <row r="63" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="C63" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="G63" s="26" t="s">
+        <v>171</v>
+      </c>
+      <c r="H63" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="R63" s="26"/>
+    </row>
+    <row r="64" spans="1:18" x14ac:dyDescent="0.15">
+      <c r="R64" s="26"/>
+    </row>
+    <row r="65" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B65" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="C65" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D65" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="E65" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="F65" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="G65" s="9" t="s">
+        <v>173</v>
+      </c>
+      <c r="H65" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="R65" s="26"/>
+    </row>
+    <row r="66" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="C66" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G66" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="H66" s="10" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="68" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B68" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C68" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="D68" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F68" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G68" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="H68" s="9" t="s">
         <v>161</v>
       </c>
-      <c r="E59" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F59" s="26" t="s">
-        <v>173</v>
-      </c>
-      <c r="G59" s="10" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="F60" s="9" t="s">
-        <v>153</v>
-      </c>
-      <c r="G60" s="10" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="F61" s="26" t="s">
-        <v>174</v>
-      </c>
-      <c r="G61" s="10" t="s">
-        <v>152</v>
-      </c>
-      <c r="R61" s="26"/>
-    </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="F62" s="26" t="s">
-        <v>175</v>
-      </c>
-      <c r="G62" s="10" t="s">
-        <v>154</v>
-      </c>
-      <c r="R62" s="26"/>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="R63" s="26"/>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B64" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C64" s="21" t="s">
+    </row>
+    <row r="69" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="C69" s="9"/>
+    </row>
+    <row r="71" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B71" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="D64" s="10" t="s">
+      <c r="C71" s="27" t="s">
+        <v>219</v>
+      </c>
+      <c r="D71" s="9" t="s">
+        <v>159</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G71" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="E64" s="1" t="s">
-        <v>157</v>
-      </c>
-      <c r="F64" s="9" t="s">
-        <v>177</v>
-      </c>
-      <c r="G64" s="10" t="s">
-        <v>178</v>
-      </c>
-      <c r="R64" s="26"/>
-    </row>
-    <row r="65" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F65" s="9" t="s">
-        <v>179</v>
-      </c>
-      <c r="G65" s="10" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="67" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B67" s="1" t="s">
-        <v>159</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>158</v>
-      </c>
-      <c r="E67" s="1" t="s">
-        <v>149</v>
-      </c>
-      <c r="F67" s="9" t="s">
+      <c r="H71" s="9" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="C72" s="27" t="s">
+        <v>218</v>
+      </c>
+      <c r="G72" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="G67" s="9" t="s">
+      <c r="H72" s="9" t="s">
         <v>165</v>
-      </c>
-    </row>
-    <row r="70" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="B70" s="1" t="s">
-        <v>160</v>
-      </c>
-      <c r="C70" s="9" t="s">
-        <v>163</v>
-      </c>
-      <c r="E70" s="1" t="s">
-        <v>116</v>
-      </c>
-      <c r="F70" s="9" t="s">
-        <v>166</v>
-      </c>
-      <c r="G70" s="9" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="71" spans="2:7" x14ac:dyDescent="0.15">
-      <c r="F71" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="G71" s="9" t="s">
-        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -2125,157 +2410,157 @@
   <sheetData>
     <row r="1" spans="1:4" s="9" customFormat="1" ht="18" customHeight="1" x14ac:dyDescent="0.15">
       <c r="A1" s="2" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
     </row>
     <row r="2" spans="1:4" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A2" s="2"/>
       <c r="B2" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:4" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A3" s="2"/>
       <c r="C3" s="9" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="4" spans="1:4" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A4" s="2"/>
       <c r="D4" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="5" spans="1:4" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A5" s="2"/>
       <c r="D5" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="6" spans="1:4" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A6" s="2"/>
       <c r="D6" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:4" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A7" s="2"/>
       <c r="D7" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="8" spans="1:4" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A8" s="2"/>
       <c r="D8" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="9" spans="1:4" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A9" s="2"/>
       <c r="C9" s="9" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
     </row>
     <row r="10" spans="1:4" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A10" s="2"/>
       <c r="D10" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="11" spans="1:4" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A11" s="2"/>
       <c r="D11" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="12" spans="1:4" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A12" s="2"/>
       <c r="D12" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:4" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A13" s="2"/>
       <c r="D13" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:4" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A14" s="2"/>
       <c r="D14" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="15" spans="1:4" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A15" s="2"/>
       <c r="C15" s="9" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="16" spans="1:4" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A16" s="2"/>
       <c r="D16" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A17" s="2"/>
       <c r="D17" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A18" s="2"/>
       <c r="D18" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A19" s="2"/>
       <c r="D19" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="20" spans="1:4" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A20" s="2"/>
       <c r="D20" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="21" spans="1:4" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A21" s="2"/>
       <c r="C21" s="9" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="22" spans="1:4" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A22" s="2"/>
       <c r="D22" s="9" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:4" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A23" s="2"/>
       <c r="D23" s="9" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="24" spans="1:4" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A24" s="2"/>
       <c r="D24" s="9" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="25" spans="1:4" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A25" s="2"/>
       <c r="D25" s="9" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:4" s="9" customFormat="1" ht="16.5" x14ac:dyDescent="0.15">
       <c r="A26" s="2"/>
       <c r="D26" s="9" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
   </sheetData>

--- a/gd/副本内容设计/小怪AOE大招.xlsx
+++ b/gd/副本内容设计/小怪AOE大招.xlsx
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="299" uniqueCount="220">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="227">
   <si>
     <t>怪物名称</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -818,6 +818,34 @@
   </si>
   <si>
     <t>bossHuangjinzhiling13Hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultChange1Hit</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>嫦娥</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Moon Lady</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>S</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>群体光属性伤害并回复自身XX%法攻血量</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>驱散己方减益buff</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>ultDujiaoshou1Hit</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -966,7 +994,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1039,6 +1067,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1323,10 +1354,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:R72"/>
+  <dimension ref="A1:R75"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
-      <selection activeCell="E68" sqref="E68"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="C45" sqref="C45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.15"/>
@@ -1494,7 +1525,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="17" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A17" s="13"/>
       <c r="C17" s="14" t="s">
         <v>40</v>
@@ -1512,7 +1543,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A18" s="13"/>
       <c r="C18" s="14" t="s">
         <v>106</v>
@@ -1530,7 +1561,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="19" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
       <c r="D19" s="15"/>
       <c r="E19" s="15" t="s">
@@ -1543,7 +1574,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="20" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A20" s="13"/>
       <c r="C20" s="14" t="s">
         <v>15</v>
@@ -1561,7 +1592,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A21" s="13"/>
       <c r="C21" s="14" t="s">
         <v>21</v>
@@ -1579,7 +1610,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="22" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A22" s="13"/>
       <c r="D22" s="15"/>
       <c r="E22" s="15" t="s">
@@ -1589,7 +1620,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="23" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
       <c r="C23" s="14" t="s">
         <v>8</v>
@@ -1607,7 +1638,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="13"/>
       <c r="C24" s="14" t="s">
         <v>35</v>
@@ -1625,7 +1656,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="25" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="13"/>
       <c r="C25" s="14" t="s">
         <v>38</v>
@@ -1643,7 +1674,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="26" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
       <c r="C26" s="14" t="s">
         <v>53</v>
@@ -1661,7 +1692,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="27" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="13"/>
       <c r="C27" s="14" t="s">
         <v>45</v>
@@ -1679,7 +1710,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="13"/>
       <c r="C28" s="14" t="s">
         <v>60</v>
@@ -1697,7 +1728,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="29" spans="1:10" s="14" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="13"/>
       <c r="D29" s="15"/>
       <c r="E29" s="15" t="s">
@@ -1707,7 +1738,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="30" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="17"/>
       <c r="B30" s="19" t="s">
         <v>180</v>
@@ -1728,25 +1759,20 @@
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="17"/>
-      <c r="B31" s="19" t="s">
+    <row r="31" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="28"/>
+      <c r="B31" s="25" t="s">
         <v>191</v>
       </c>
-      <c r="C31" s="24"/>
       <c r="D31" s="25"/>
       <c r="E31" s="25" t="s">
         <v>28</v>
       </c>
-      <c r="F31" s="24"/>
       <c r="G31" s="24" t="s">
         <v>91</v>
       </c>
-      <c r="H31" s="24"/>
-      <c r="I31" s="24"/>
-      <c r="J31" s="24"/>
-    </row>
-    <row r="32" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="32" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="17"/>
       <c r="B32" s="19" t="s">
         <v>181</v>
@@ -1767,7 +1793,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="17"/>
       <c r="B33" s="19" t="s">
         <v>182</v>
@@ -1788,9 +1814,9 @@
         <v>44</v>
       </c>
     </row>
-    <row r="34" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="17"/>
-      <c r="B34" s="19" t="s">
+    <row r="34" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A34" s="28"/>
+      <c r="B34" s="25" t="s">
         <v>192</v>
       </c>
       <c r="C34" s="24" t="s">
@@ -1808,11 +1834,8 @@
       <c r="G34" s="24" t="s">
         <v>49</v>
       </c>
-      <c r="H34" s="24"/>
-      <c r="I34" s="24"/>
-      <c r="J34" s="24"/>
-    </row>
-    <row r="35" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="17"/>
       <c r="B35" s="19" t="s">
         <v>184</v>
@@ -1833,7 +1856,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="36" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="17"/>
       <c r="B36" s="19" t="s">
         <v>183</v>
@@ -1849,7 +1872,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="37" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="17"/>
       <c r="B37" s="19" t="s">
         <v>187</v>
@@ -1870,7 +1893,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="38" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="17"/>
       <c r="B38" s="19" t="s">
         <v>188</v>
@@ -1891,7 +1914,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="39" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="17"/>
       <c r="B39" s="19" t="s">
         <v>185</v>
@@ -1912,7 +1935,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="40" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="17"/>
       <c r="B40" s="19" t="s">
         <v>193</v>
@@ -1933,9 +1956,9 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="17"/>
-      <c r="B41" s="19" t="s">
+    <row r="41" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A41" s="28"/>
+      <c r="B41" s="25" t="s">
         <v>194</v>
       </c>
       <c r="C41" s="24" t="s">
@@ -1953,16 +1976,12 @@
       <c r="G41" s="24" t="s">
         <v>98</v>
       </c>
-      <c r="H41" s="24"/>
-      <c r="I41" s="24"/>
-      <c r="J41" s="24"/>
-    </row>
-    <row r="42" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="17"/>
-      <c r="B42" s="19" t="s">
+    </row>
+    <row r="42" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="28"/>
+      <c r="B42" s="25" t="s">
         <v>195</v>
       </c>
-      <c r="C42" s="24"/>
       <c r="D42" s="25"/>
       <c r="E42" s="25" t="s">
         <v>28</v>
@@ -1973,13 +1992,10 @@
       <c r="G42" s="24" t="s">
         <v>99</v>
       </c>
-      <c r="H42" s="24"/>
-      <c r="I42" s="24"/>
-      <c r="J42" s="24"/>
-    </row>
-    <row r="43" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="17"/>
-      <c r="B43" s="19" t="s">
+    </row>
+    <row r="43" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A43" s="28"/>
+      <c r="B43" s="25" t="s">
         <v>196</v>
       </c>
       <c r="C43" s="24" t="s">
@@ -1997,13 +2013,10 @@
       <c r="G43" s="24" t="s">
         <v>100</v>
       </c>
-      <c r="H43" s="24"/>
-      <c r="I43" s="24"/>
-      <c r="J43" s="24"/>
-    </row>
-    <row r="44" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A44" s="17"/>
-      <c r="B44" s="19" t="s">
+    </row>
+    <row r="44" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A44" s="28"/>
+      <c r="B44" s="25" t="s">
         <v>197</v>
       </c>
       <c r="C44" s="24" t="s">
@@ -2021,11 +2034,8 @@
       <c r="G44" s="24" t="s">
         <v>114</v>
       </c>
-      <c r="H44" s="24"/>
-      <c r="I44" s="24"/>
-      <c r="J44" s="24"/>
-    </row>
-    <row r="45" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A45" s="17"/>
       <c r="B45" s="19" t="s">
         <v>190</v>
@@ -2046,7 +2056,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="46" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A46" s="17"/>
       <c r="B46" s="19" t="s">
         <v>186</v>
@@ -2067,7 +2077,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="47" spans="1:10" s="18" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:7" s="18" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A47" s="17"/>
       <c r="B47" s="19" t="s">
         <v>189</v>
@@ -2088,307 +2098,350 @@
         <v>73</v>
       </c>
     </row>
-    <row r="48" spans="1:10" s="8" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A48" s="4"/>
-    </row>
-    <row r="49" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A49" s="11" t="s">
+    <row r="48" spans="1:7" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A48" s="28"/>
+      <c r="B48" s="25" t="s">
+        <v>226</v>
+      </c>
+      <c r="D48" s="25"/>
+      <c r="E48" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F48" s="24" t="s">
+        <v>120</v>
+      </c>
+      <c r="G48" s="24" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" s="24" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A49" s="28"/>
+      <c r="B49" s="25" t="s">
+        <v>220</v>
+      </c>
+      <c r="C49" s="24" t="s">
+        <v>221</v>
+      </c>
+      <c r="D49" s="25" t="s">
+        <v>222</v>
+      </c>
+      <c r="E49" s="25" t="s">
+        <v>28</v>
+      </c>
+      <c r="F49" s="24" t="s">
+        <v>223</v>
+      </c>
+      <c r="G49" s="24" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" s="18" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A50" s="17"/>
+      <c r="B50" s="19"/>
+      <c r="D50" s="19"/>
+      <c r="E50" s="19"/>
+    </row>
+    <row r="51" spans="1:11" s="8" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A51" s="4"/>
+    </row>
+    <row r="52" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A52" s="11" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="50" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A50" s="11"/>
-      <c r="B50" s="11" t="s">
+    <row r="53" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="11"/>
+      <c r="B53" s="11" t="s">
         <v>125</v>
       </c>
-      <c r="C50" s="2" t="s">
+      <c r="C53" s="2" t="s">
         <v>179</v>
       </c>
-      <c r="D50" s="11" t="s">
+      <c r="D53" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="E50" s="3" t="s">
+      <c r="E53" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F50" s="2" t="s">
+      <c r="F53" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G50" s="11" t="s">
+      <c r="G53" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="H50" s="11" t="s">
+      <c r="H53" s="11" t="s">
         <v>132</v>
       </c>
     </row>
-    <row r="51" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A51" s="11"/>
-      <c r="B51" s="12" t="s">
-        <v>124</v>
-      </c>
-      <c r="C51" s="12" t="s">
-        <v>205</v>
-      </c>
-      <c r="D51" s="12" t="s">
-        <v>199</v>
-      </c>
-      <c r="E51" s="12" t="s">
-        <v>200</v>
-      </c>
-      <c r="F51" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>201</v>
-      </c>
-      <c r="H51" s="10" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="52" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A52" s="11"/>
-      <c r="C52" s="12" t="s">
-        <v>206</v>
-      </c>
-      <c r="F52" s="20"/>
-      <c r="G52" s="9" t="s">
-        <v>203</v>
-      </c>
-      <c r="H52" s="10" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="53" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A53" s="11"/>
-      <c r="F53" s="20"/>
-    </row>
-    <row r="54" spans="1:18" s="12" customFormat="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.15">
       <c r="A54" s="11"/>
       <c r="B54" s="12" t="s">
+        <v>124</v>
+      </c>
+      <c r="C54" s="12" t="s">
+        <v>205</v>
+      </c>
+      <c r="D54" s="12" t="s">
+        <v>199</v>
+      </c>
+      <c r="E54" s="12" t="s">
+        <v>200</v>
+      </c>
+      <c r="F54" s="20" t="s">
+        <v>85</v>
+      </c>
+      <c r="G54" s="9" t="s">
+        <v>201</v>
+      </c>
+      <c r="H54" s="10" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A55" s="11"/>
+      <c r="C55" s="12" t="s">
+        <v>206</v>
+      </c>
+      <c r="F55" s="20"/>
+      <c r="G55" s="9" t="s">
+        <v>203</v>
+      </c>
+      <c r="H55" s="10" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A56" s="11"/>
+      <c r="F56" s="20"/>
+    </row>
+    <row r="57" spans="1:11" s="12" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A57" s="11"/>
+      <c r="B57" s="12" t="s">
         <v>127</v>
       </c>
-      <c r="C54" s="12" t="s">
+      <c r="C57" s="12" t="s">
         <v>207</v>
       </c>
-      <c r="D54" s="12" t="s">
+      <c r="D57" s="12" t="s">
         <v>128</v>
       </c>
-      <c r="E54" s="12" t="s">
+      <c r="E57" s="12" t="s">
         <v>129</v>
-      </c>
-      <c r="F54" s="12" t="s">
-        <v>130</v>
-      </c>
-      <c r="G54" s="9" t="s">
-        <v>133</v>
-      </c>
-      <c r="H54" s="9" t="s">
-        <v>135</v>
-      </c>
-      <c r="I54" s="10"/>
-      <c r="J54" s="9"/>
-    </row>
-    <row r="55" spans="1:18" s="5" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A55" s="2"/>
-      <c r="C55" s="12" t="s">
-        <v>208</v>
-      </c>
-      <c r="D55" s="7"/>
-      <c r="E55" s="7"/>
-      <c r="F55" s="6"/>
-      <c r="G55" s="9" t="s">
-        <v>134</v>
-      </c>
-      <c r="H55" s="10" t="s">
-        <v>136</v>
-      </c>
-      <c r="I55" s="10"/>
-      <c r="J55" s="10"/>
-      <c r="K55" s="10"/>
-    </row>
-    <row r="56" spans="1:18" s="10" customFormat="1" x14ac:dyDescent="0.15">
-      <c r="A56" s="16"/>
-    </row>
-    <row r="57" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B57" s="1" t="s">
-        <v>137</v>
-      </c>
-      <c r="C57" s="1" t="s">
-        <v>209</v>
-      </c>
-      <c r="D57" s="1" t="s">
-        <v>138</v>
-      </c>
-      <c r="E57" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="F57" s="12" t="s">
         <v>130</v>
       </c>
       <c r="G57" s="9" t="s">
+        <v>133</v>
+      </c>
+      <c r="H57" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="I57" s="10"/>
+      <c r="J57" s="9"/>
+    </row>
+    <row r="58" spans="1:11" s="5" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A58" s="2"/>
+      <c r="C58" s="12" t="s">
+        <v>208</v>
+      </c>
+      <c r="D58" s="7"/>
+      <c r="E58" s="7"/>
+      <c r="F58" s="6"/>
+      <c r="G58" s="9" t="s">
+        <v>134</v>
+      </c>
+      <c r="H58" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="I58" s="10"/>
+      <c r="J58" s="10"/>
+      <c r="K58" s="10"/>
+    </row>
+    <row r="59" spans="1:11" s="10" customFormat="1" x14ac:dyDescent="0.15">
+      <c r="A59" s="16"/>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B60" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="C60" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D60" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="E60" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="F60" s="12" t="s">
+        <v>130</v>
+      </c>
+      <c r="G60" s="9" t="s">
         <v>140</v>
       </c>
-      <c r="H57" s="10" t="s">
+      <c r="H60" s="10" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="58" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="C58" s="1" t="s">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C61" s="1" t="s">
         <v>210</v>
       </c>
-      <c r="G58" s="26" t="s">
+      <c r="G61" s="26" t="s">
         <v>172</v>
       </c>
-      <c r="H58" s="10" t="s">
+      <c r="H61" s="10" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="60" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="B60" s="9" t="s">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="B63" s="9" t="s">
         <v>144</v>
       </c>
-      <c r="C60" s="1" t="s">
+      <c r="C63" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D60" s="1" t="s">
+      <c r="D63" s="1" t="s">
         <v>143</v>
       </c>
-      <c r="E60" s="1" t="s">
+      <c r="E63" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="F60" s="1" t="s">
+      <c r="F63" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="G60" s="26" t="s">
+      <c r="G63" s="26" t="s">
         <v>169</v>
       </c>
-      <c r="H60" s="10" t="s">
+      <c r="H63" s="10" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="61" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="C61" s="1" t="s">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.15">
+      <c r="C64" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="G61" s="9" t="s">
+      <c r="G64" s="9" t="s">
         <v>149</v>
       </c>
-      <c r="H61" s="10" t="s">
+      <c r="H64" s="10" t="s">
         <v>147</v>
       </c>
     </row>
-    <row r="62" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="C62" s="1" t="s">
+    <row r="65" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="C65" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="G62" s="26" t="s">
+      <c r="G65" s="26" t="s">
         <v>170</v>
       </c>
-      <c r="H62" s="10" t="s">
+      <c r="H65" s="10" t="s">
         <v>148</v>
-      </c>
-      <c r="R62" s="26"/>
-    </row>
-    <row r="63" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="C63" s="1" t="s">
-        <v>214</v>
-      </c>
-      <c r="G63" s="26" t="s">
-        <v>171</v>
-      </c>
-      <c r="H63" s="10" t="s">
-        <v>150</v>
-      </c>
-      <c r="R63" s="26"/>
-    </row>
-    <row r="64" spans="1:18" x14ac:dyDescent="0.15">
-      <c r="R64" s="26"/>
-    </row>
-    <row r="65" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="B65" s="1" t="s">
-        <v>151</v>
-      </c>
-      <c r="C65" s="1" t="s">
-        <v>215</v>
-      </c>
-      <c r="D65" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="E65" s="10" t="s">
-        <v>158</v>
-      </c>
-      <c r="F65" s="1" t="s">
-        <v>153</v>
-      </c>
-      <c r="G65" s="9" t="s">
-        <v>173</v>
-      </c>
-      <c r="H65" s="10" t="s">
-        <v>174</v>
       </c>
       <c r="R65" s="26"/>
     </row>
     <row r="66" spans="2:18" x14ac:dyDescent="0.15">
       <c r="C66" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="G66" s="9" t="s">
-        <v>198</v>
+        <v>214</v>
+      </c>
+      <c r="G66" s="26" t="s">
+        <v>171</v>
       </c>
       <c r="H66" s="10" t="s">
-        <v>175</v>
-      </c>
+        <v>150</v>
+      </c>
+      <c r="R66" s="26"/>
+    </row>
+    <row r="67" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="R67" s="26"/>
     </row>
     <row r="68" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B68" s="1" t="s">
-        <v>155</v>
-      </c>
-      <c r="C68" s="9" t="s">
-        <v>217</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>154</v>
+        <v>151</v>
+      </c>
+      <c r="C68" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="D68" s="21" t="s">
+        <v>152</v>
+      </c>
+      <c r="E68" s="10" t="s">
+        <v>158</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="G68" s="9" t="s">
-        <v>160</v>
-      </c>
-      <c r="H68" s="9" t="s">
-        <v>161</v>
-      </c>
+        <v>173</v>
+      </c>
+      <c r="H68" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="R68" s="26"/>
     </row>
     <row r="69" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="C69" s="9"/>
+      <c r="C69" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>198</v>
+      </c>
+      <c r="H69" s="10" t="s">
+        <v>175</v>
+      </c>
     </row>
     <row r="71" spans="2:18" x14ac:dyDescent="0.15">
       <c r="B71" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="C71" s="9" t="s">
+        <v>217</v>
+      </c>
+      <c r="D71" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="F71" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="G71" s="9" t="s">
+        <v>160</v>
+      </c>
+      <c r="H71" s="9" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="72" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="C72" s="9"/>
+    </row>
+    <row r="74" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="B74" s="1" t="s">
         <v>156</v>
       </c>
-      <c r="C71" s="27" t="s">
+      <c r="C74" s="27" t="s">
         <v>219</v>
       </c>
-      <c r="D71" s="9" t="s">
+      <c r="D74" s="9" t="s">
         <v>159</v>
       </c>
-      <c r="F71" s="1" t="s">
+      <c r="F74" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="G71" s="9" t="s">
+      <c r="G74" s="9" t="s">
         <v>162</v>
       </c>
-      <c r="H71" s="9" t="s">
+      <c r="H74" s="9" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="72" spans="2:18" x14ac:dyDescent="0.15">
-      <c r="C72" s="27" t="s">
+    <row r="75" spans="2:18" x14ac:dyDescent="0.15">
+      <c r="C75" s="27" t="s">
         <v>218</v>
       </c>
-      <c r="G72" s="9" t="s">
+      <c r="G75" s="9" t="s">
         <v>164</v>
       </c>
-      <c r="H72" s="9" t="s">
+      <c r="H75" s="9" t="s">
         <v>165</v>
       </c>
     </row>
